--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Prn</t>
+  </si>
+  <si>
+    <t>Rpsa</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Prn</t>
-  </si>
-  <si>
-    <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H2">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I2">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J2">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N2">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O2">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P2">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q2">
-        <v>7.181954485711</v>
+        <v>184.4358919187025</v>
       </c>
       <c r="R2">
-        <v>43.091726914266</v>
+        <v>737.74356767481</v>
       </c>
       <c r="S2">
-        <v>0.007225456315339536</v>
+        <v>0.1338967443431077</v>
       </c>
       <c r="T2">
-        <v>0.005692732112600606</v>
+        <v>0.09841499756600817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H3">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I3">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J3">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O3">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P3">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q3">
-        <v>21.77175874843334</v>
+        <v>337.9876385404083</v>
       </c>
       <c r="R3">
-        <v>195.9458287359</v>
+        <v>2027.92583124245</v>
       </c>
       <c r="S3">
-        <v>0.02190363250810032</v>
+        <v>0.2453722209813906</v>
       </c>
       <c r="T3">
-        <v>0.02588587627955352</v>
+        <v>0.2705253213861201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H4">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I4">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J4">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N4">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O4">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P4">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q4">
-        <v>10.13934301365533</v>
+        <v>209.4047287693427</v>
       </c>
       <c r="R4">
-        <v>91.25408712289801</v>
+        <v>1256.428372616056</v>
       </c>
       <c r="S4">
-        <v>0.01020075804673621</v>
+        <v>0.1520236172069243</v>
       </c>
       <c r="T4">
-        <v>0.01205533194815159</v>
+        <v>0.1676075545092073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H5">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I5">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J5">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N5">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O5">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P5">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q5">
-        <v>14.353223120735</v>
+        <v>207.6818249331592</v>
       </c>
       <c r="R5">
-        <v>86.11933872441001</v>
+        <v>830.727299732637</v>
       </c>
       <c r="S5">
-        <v>0.01444016205470637</v>
+        <v>0.1507728237085368</v>
       </c>
       <c r="T5">
-        <v>0.01137699415128507</v>
+        <v>0.1108190281331484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H6">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I6">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J6">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N6">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O6">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P6">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q6">
-        <v>5.322736035226001</v>
+        <v>64.74748598996517</v>
       </c>
       <c r="R6">
-        <v>47.90462431703401</v>
+        <v>388.484915939791</v>
       </c>
       <c r="S6">
-        <v>0.005354976389383459</v>
+        <v>0.04700537128792009</v>
       </c>
       <c r="T6">
-        <v>0.006328551040301061</v>
+        <v>0.0518238907553553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.07187800000000001</v>
+        <v>1.1158435</v>
       </c>
       <c r="H7">
-        <v>0.215634</v>
+        <v>2.231687</v>
       </c>
       <c r="I7">
-        <v>0.07239836323575702</v>
+        <v>0.816471849355914</v>
       </c>
       <c r="J7">
-        <v>0.07702606256702106</v>
+        <v>0.7955513459251506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N7">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O7">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P7">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q7">
-        <v>13.19346376801267</v>
+        <v>120.3904898236155</v>
       </c>
       <c r="R7">
-        <v>118.741173912114</v>
+        <v>722.3429389416931</v>
       </c>
       <c r="S7">
-        <v>0.01327337792149112</v>
+        <v>0.08740107182803464</v>
       </c>
       <c r="T7">
-        <v>0.01568657703512922</v>
+        <v>0.09636055357531141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H8">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I8">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J8">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N8">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O8">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P8">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q8">
-        <v>17.87979733039075</v>
+        <v>11.88059350557</v>
       </c>
       <c r="R8">
-        <v>71.519189321563</v>
+        <v>71.28356103342</v>
       </c>
       <c r="S8">
-        <v>0.01798809708344639</v>
+        <v>0.008625071696787133</v>
       </c>
       <c r="T8">
-        <v>0.009448207692582306</v>
+        <v>0.009509227586641231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H9">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I9">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J9">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O9">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P9">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q9">
-        <v>54.20176843540833</v>
+        <v>21.77175874843333</v>
       </c>
       <c r="R9">
-        <v>325.21061061245</v>
+        <v>195.9458287359</v>
       </c>
       <c r="S9">
-        <v>0.05453007406596246</v>
+        <v>0.01580585852738344</v>
       </c>
       <c r="T9">
-        <v>0.04296269885111147</v>
+        <v>0.02613917505088062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H10">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I10">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J10">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N10">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O10">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P10">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q10">
-        <v>25.24234851503983</v>
+        <v>13.48898218655467</v>
       </c>
       <c r="R10">
-        <v>151.454091090239</v>
+        <v>121.400839678992</v>
       </c>
       <c r="S10">
-        <v>0.02539524399031889</v>
+        <v>0.009792729497997973</v>
       </c>
       <c r="T10">
-        <v>0.02000819251568922</v>
+        <v>0.0161948729409807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H11">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I11">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J11">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N11">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O11">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P11">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q11">
-        <v>35.73299175693875</v>
+        <v>13.377999883089</v>
       </c>
       <c r="R11">
-        <v>142.931967027755</v>
+        <v>80.26799929853399</v>
       </c>
       <c r="S11">
-        <v>0.0359494301265526</v>
+        <v>0.009712158580053748</v>
       </c>
       <c r="T11">
-        <v>0.01888235763293803</v>
+        <v>0.0107077517198708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H12">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I12">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J12">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N12">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O12">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P12">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q12">
-        <v>13.2511897342645</v>
+        <v>4.170763909084667</v>
       </c>
       <c r="R12">
-        <v>79.507138405587</v>
+        <v>37.536875181762</v>
       </c>
       <c r="S12">
-        <v>0.01333145353979853</v>
+        <v>0.003027890629315958</v>
       </c>
       <c r="T12">
-        <v>0.01050347415602468</v>
+        <v>0.00500741943612177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1789435</v>
+        <v>0.071878</v>
       </c>
       <c r="H13">
-        <v>0.357887</v>
+        <v>0.215634</v>
       </c>
       <c r="I13">
-        <v>0.1802389675794775</v>
+        <v>0.05259372267527156</v>
       </c>
       <c r="J13">
-        <v>0.1278398882083691</v>
+        <v>0.07686916620799598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N13">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O13">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P13">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q13">
-        <v>32.84571890942117</v>
+        <v>7.755054922614</v>
       </c>
       <c r="R13">
-        <v>197.074313456527</v>
+        <v>69.795494303526</v>
       </c>
       <c r="S13">
-        <v>0.03304466877339861</v>
+        <v>0.005630013743733305</v>
       </c>
       <c r="T13">
-        <v>0.02603495736002342</v>
+        <v>0.009310719473500855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H14">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I14">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J14">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.91867449999999</v>
+        <v>165.288315</v>
       </c>
       <c r="N14">
-        <v>199.837349</v>
+        <v>330.57663</v>
       </c>
       <c r="O14">
-        <v>0.09980137661138361</v>
+        <v>0.1639943182961349</v>
       </c>
       <c r="P14">
-        <v>0.07390657035918601</v>
+        <v>0.1237066571128239</v>
       </c>
       <c r="Q14">
-        <v>70.58005369993749</v>
+        <v>29.5772695952025</v>
       </c>
       <c r="R14">
-        <v>423.4803221996249</v>
+        <v>118.30907838081</v>
       </c>
       <c r="S14">
-        <v>0.07100756427207161</v>
+        <v>0.02147250225624014</v>
       </c>
       <c r="T14">
-        <v>0.05594484607304394</v>
+        <v>0.01578243196017451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H15">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I15">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J15">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>908.6963499999999</v>
       </c>
       <c r="O15">
-        <v>0.3025432002761394</v>
+        <v>0.3005274721657043</v>
       </c>
       <c r="P15">
-        <v>0.3360664613620876</v>
+        <v>0.3400475943781163</v>
       </c>
       <c r="Q15">
-        <v>213.9601280770833</v>
+        <v>54.20176843540833</v>
       </c>
       <c r="R15">
-        <v>1925.64115269375</v>
+        <v>325.21061061245</v>
       </c>
       <c r="S15">
-        <v>0.215256106359517</v>
+        <v>0.03934939265693035</v>
       </c>
       <c r="T15">
-        <v>0.2543912721134369</v>
+        <v>0.04338309794111556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H16">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I16">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J16">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>141.0632323333333</v>
+        <v>187.6649626666667</v>
       </c>
       <c r="N16">
-        <v>423.189697</v>
+        <v>562.9948880000001</v>
       </c>
       <c r="O16">
-        <v>0.1408976334660855</v>
+        <v>0.1861957853499179</v>
       </c>
       <c r="P16">
-        <v>0.1565097779425262</v>
+        <v>0.2106810017577126</v>
       </c>
       <c r="Q16">
-        <v>99.64354073945833</v>
+        <v>33.58142524694267</v>
       </c>
       <c r="R16">
-        <v>896.791866655125</v>
+        <v>201.488551481656</v>
       </c>
       <c r="S16">
-        <v>0.1002470918120049</v>
+        <v>0.02437943864499569</v>
       </c>
       <c r="T16">
-        <v>0.1184727608569462</v>
+        <v>0.02687857430752461</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H17">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I17">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J17">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>199.6886825</v>
+        <v>186.1209255</v>
       </c>
       <c r="N17">
-        <v>399.377365</v>
+        <v>372.241851</v>
       </c>
       <c r="O17">
-        <v>0.1994542612473658</v>
+        <v>0.1846638360250585</v>
       </c>
       <c r="P17">
-        <v>0.1477031769783876</v>
+        <v>0.1392983981496208</v>
       </c>
       <c r="Q17">
-        <v>141.0550931009375</v>
+        <v>33.30512983220925</v>
       </c>
       <c r="R17">
-        <v>846.330558605625</v>
+        <v>133.220519328837</v>
       </c>
       <c r="S17">
-        <v>0.1419094781629039</v>
+        <v>0.02417885373646802</v>
       </c>
       <c r="T17">
-        <v>0.1118064532070173</v>
+        <v>0.01777161829660166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H18">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I18">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J18">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.052367</v>
+        <v>58.02559766666667</v>
       </c>
       <c r="N18">
-        <v>222.157101</v>
+        <v>174.076793</v>
       </c>
       <c r="O18">
-        <v>0.07396543443869841</v>
+        <v>0.05757133124063124</v>
       </c>
       <c r="P18">
-        <v>0.08216116505753533</v>
+        <v>0.0651421068178686</v>
       </c>
       <c r="Q18">
-        <v>52.308740739625</v>
+        <v>10.38330353606517</v>
       </c>
       <c r="R18">
-        <v>470.778666656625</v>
+        <v>62.299821216391</v>
       </c>
       <c r="S18">
-        <v>0.05262558010866662</v>
+        <v>0.007538069323395198</v>
       </c>
       <c r="T18">
-        <v>0.06219330311211582</v>
+        <v>0.008310796626391535</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.706375</v>
+        <v>0.1789435</v>
       </c>
       <c r="H19">
-        <v>2.119125</v>
+        <v>0.357887</v>
       </c>
       <c r="I19">
-        <v>0.7114888259364179</v>
+        <v>0.1309344279688146</v>
       </c>
       <c r="J19">
-        <v>0.7569671519210258</v>
+        <v>0.1275794878668534</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>183.5535736666667</v>
+        <v>107.891913</v>
       </c>
       <c r="N19">
-        <v>550.660721</v>
+        <v>323.675739</v>
       </c>
       <c r="O19">
-        <v>0.1833380939603272</v>
+        <v>0.1070472569225532</v>
       </c>
       <c r="P19">
-        <v>0.2036528483002774</v>
+        <v>0.1211242417838578</v>
       </c>
       <c r="Q19">
-        <v>129.6576555987916</v>
+        <v>19.3065565339155</v>
       </c>
       <c r="R19">
-        <v>1166.918900389125</v>
+        <v>115.839339203493</v>
       </c>
       <c r="S19">
-        <v>0.1304430052212538</v>
+        <v>0.01401617135078523</v>
       </c>
       <c r="T19">
-        <v>0.1541585165584657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.035616</v>
-      </c>
-      <c r="H20">
-        <v>0.106848</v>
-      </c>
-      <c r="I20">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J20">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>99.91867449999999</v>
-      </c>
-      <c r="N20">
-        <v>199.837349</v>
-      </c>
-      <c r="O20">
-        <v>0.09980137661138361</v>
-      </c>
-      <c r="P20">
-        <v>0.07390657035918601</v>
-      </c>
-      <c r="Q20">
-        <v>3.558703510992</v>
-      </c>
-      <c r="R20">
-        <v>21.352221065952</v>
-      </c>
-      <c r="S20">
-        <v>0.00358025894052607</v>
-      </c>
-      <c r="T20">
-        <v>0.002820784480959169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.035616</v>
-      </c>
-      <c r="H21">
-        <v>0.106848</v>
-      </c>
-      <c r="I21">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J21">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>302.8987833333333</v>
-      </c>
-      <c r="N21">
-        <v>908.6963499999999</v>
-      </c>
-      <c r="O21">
-        <v>0.3025432002761394</v>
-      </c>
-      <c r="P21">
-        <v>0.3360664613620876</v>
-      </c>
-      <c r="Q21">
-        <v>10.7880430672</v>
-      </c>
-      <c r="R21">
-        <v>97.0923876048</v>
-      </c>
-      <c r="S21">
-        <v>0.01085338734255963</v>
-      </c>
-      <c r="T21">
-        <v>0.01282661411798573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.035616</v>
-      </c>
-      <c r="H22">
-        <v>0.106848</v>
-      </c>
-      <c r="I22">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J22">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>141.0632323333333</v>
-      </c>
-      <c r="N22">
-        <v>423.189697</v>
-      </c>
-      <c r="O22">
-        <v>0.1408976334660855</v>
-      </c>
-      <c r="P22">
-        <v>0.1565097779425262</v>
-      </c>
-      <c r="Q22">
-        <v>5.024108082784</v>
-      </c>
-      <c r="R22">
-        <v>45.216972745056</v>
-      </c>
-      <c r="S22">
-        <v>0.005054539617025473</v>
-      </c>
-      <c r="T22">
-        <v>0.005973492621739156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.035616</v>
-      </c>
-      <c r="H23">
-        <v>0.106848</v>
-      </c>
-      <c r="I23">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J23">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>199.6886825</v>
-      </c>
-      <c r="N23">
-        <v>399.377365</v>
-      </c>
-      <c r="O23">
-        <v>0.1994542612473658</v>
-      </c>
-      <c r="P23">
-        <v>0.1477031769783876</v>
-      </c>
-      <c r="Q23">
-        <v>7.11211211592</v>
-      </c>
-      <c r="R23">
-        <v>42.67267269552</v>
-      </c>
-      <c r="S23">
-        <v>0.007155190903202952</v>
-      </c>
-      <c r="T23">
-        <v>0.005637371987147234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.035616</v>
-      </c>
-      <c r="H24">
-        <v>0.106848</v>
-      </c>
-      <c r="I24">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J24">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>74.052367</v>
-      </c>
-      <c r="N24">
-        <v>222.157101</v>
-      </c>
-      <c r="O24">
-        <v>0.07396543443869841</v>
-      </c>
-      <c r="P24">
-        <v>0.08216116505753533</v>
-      </c>
-      <c r="Q24">
-        <v>2.637449103072</v>
-      </c>
-      <c r="R24">
-        <v>23.737041927648</v>
-      </c>
-      <c r="S24">
-        <v>0.002653424400849791</v>
-      </c>
-      <c r="T24">
-        <v>0.003135836749093777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.035616</v>
-      </c>
-      <c r="H25">
-        <v>0.106848</v>
-      </c>
-      <c r="I25">
-        <v>0.0358738432483475</v>
-      </c>
-      <c r="J25">
-        <v>0.03816689730358415</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>183.5535736666667</v>
-      </c>
-      <c r="N25">
-        <v>550.660721</v>
-      </c>
-      <c r="O25">
-        <v>0.1833380939603272</v>
-      </c>
-      <c r="P25">
-        <v>0.2036528483002774</v>
-      </c>
-      <c r="Q25">
-        <v>6.537444079712</v>
-      </c>
-      <c r="R25">
-        <v>58.836996717408</v>
-      </c>
-      <c r="S25">
-        <v>0.006577042044183581</v>
-      </c>
-      <c r="T25">
-        <v>0.00777279734665909</v>
+        <v>0.0154529687350455</v>
       </c>
     </row>
   </sheetData>
